--- a/9.xlsx
+++ b/9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>НАИМЕНОВАНИЕ МАТЕРИАЛА</t>
+          <t>НАИМЕНОВАНИЕ МАТЕРИАЛА(Код ККМ)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>НАИМЕНОВАНИЕ МАТЕРИАЛА ДЛЯ ВКЛЮЧЕНИЯ В СМЕТНУЮ СТОИМОСТЬ</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ЕД.ИЗМ.</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ПТМ</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ОСНОВНЫЕ ХАРАКТЕРИСТИКИ</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ПРИМЕЧАНИЕ</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ЦЕНА ЗА ЕД.ИЗМ.</t>
         </is>
@@ -463,160 +488,138 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ПРОО</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ПРОО</t>
+          <t>АПР</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ПРОПРО</t>
+          <t>АПРАПР</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ПРО</t>
+          <t>АПР</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>АПРАП</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>РАП</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>РАП</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>РАПРАП</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>РАПР</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>РПОПО</t>
+          <t>dfg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ПРОПО</t>
+          <t>dfg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ПРОП</t>
+          <t>dfg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>РОПРО</t>
+          <t>dfg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>fgdf</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>gdfgdfg</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>fdgd</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>gdfg</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>gdfg</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ПРОПО</t>
+          <t>2/10-10-10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ПРО</t>
+          <t>ВЫРЛАОЫВРА</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ПОРРПО</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ПРО</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ПРОПР</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ОПРОР</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ОПРО</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ПРО</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ПРО</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ПРО</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ПРО</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ПРОО</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ПРО</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ПРО</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ПРО</t>
-        </is>
-      </c>
+          <t>ВЫА</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ЫВА</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ЫАЫВА</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
